--- a/Code/Results/Cases/Case_4_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_192/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9972064181278597</v>
+        <v>0.784865710146363</v>
       </c>
       <c r="C2">
-        <v>0.1156056142152124</v>
+        <v>0.1778963862686638</v>
       </c>
       <c r="D2">
-        <v>0.2915218282500547</v>
+        <v>0.5523038155123459</v>
       </c>
       <c r="E2">
-        <v>0.07753365863324291</v>
+        <v>0.1951425423216033</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5962889745236311</v>
+        <v>1.250252276497449</v>
       </c>
       <c r="H2">
-        <v>0.4820762004174384</v>
+        <v>1.216391541453632</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03532551602599776</v>
+        <v>0.08700521278944517</v>
       </c>
       <c r="K2">
-        <v>0.7816387997758341</v>
+        <v>0.354542159966428</v>
       </c>
       <c r="L2">
-        <v>0.1867112918667502</v>
+        <v>0.3480760438458219</v>
       </c>
       <c r="M2">
-        <v>0.2255247739544366</v>
+        <v>0.2533837793569447</v>
       </c>
       <c r="N2">
-        <v>1.159586392109636</v>
+        <v>2.475277352253141</v>
       </c>
       <c r="O2">
-        <v>2.218729191362655</v>
+        <v>5.030101277065825</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8738022031682817</v>
+        <v>0.752948606238391</v>
       </c>
       <c r="C3">
-        <v>0.1147066865885122</v>
+        <v>0.1776282276230958</v>
       </c>
       <c r="D3">
-        <v>0.2752343834728066</v>
+        <v>0.5509349362848184</v>
       </c>
       <c r="E3">
-        <v>0.07664360934339065</v>
+        <v>0.1957978153097724</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.588493659619246</v>
+        <v>1.255828740795458</v>
       </c>
       <c r="H3">
-        <v>0.4843381639493742</v>
+        <v>1.222884113302342</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0357234934993218</v>
+        <v>0.0872279177124371</v>
       </c>
       <c r="K3">
-        <v>0.6793860336064483</v>
+        <v>0.3253142359467915</v>
       </c>
       <c r="L3">
-        <v>0.1737023881928863</v>
+        <v>0.3462703824005686</v>
       </c>
       <c r="M3">
-        <v>0.2006245184030853</v>
+        <v>0.2476203780224182</v>
       </c>
       <c r="N3">
-        <v>1.206383793120942</v>
+        <v>2.496006694258837</v>
       </c>
       <c r="O3">
-        <v>2.206563923446808</v>
+        <v>5.055239286500068</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7984041224231078</v>
+        <v>0.733641252433813</v>
       </c>
       <c r="C4">
-        <v>0.1141751490698795</v>
+        <v>0.1774728291541976</v>
       </c>
       <c r="D4">
-        <v>0.2655438905541843</v>
+        <v>0.5503100861525212</v>
       </c>
       <c r="E4">
-        <v>0.07617451131298303</v>
+        <v>0.1962578054156143</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5846586699885208</v>
+        <v>1.259800244391656</v>
       </c>
       <c r="H4">
-        <v>0.4863101454572103</v>
+        <v>1.227259195482304</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03597777544173164</v>
+        <v>0.08737216706262929</v>
       </c>
       <c r="K4">
-        <v>0.6167038373040299</v>
+        <v>0.3074455016898412</v>
       </c>
       <c r="L4">
-        <v>0.1658762320065819</v>
+        <v>0.3452846272183479</v>
       </c>
       <c r="M4">
-        <v>0.1854621695066569</v>
+        <v>0.2441792773750748</v>
       </c>
       <c r="N4">
-        <v>1.23628435053083</v>
+        <v>2.509383630593933</v>
       </c>
       <c r="O4">
-        <v>2.202321948737577</v>
+        <v>5.072638575531258</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7677620228835451</v>
+        <v>0.7258469354265742</v>
       </c>
       <c r="C5">
-        <v>0.1139635959356013</v>
+        <v>0.1774118483741418</v>
       </c>
       <c r="D5">
-        <v>0.2616698283851093</v>
+        <v>0.5501098322473297</v>
       </c>
       <c r="E5">
-        <v>0.07600235978770442</v>
+        <v>0.1964597855527686</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5833264321738483</v>
+        <v>1.261556476216633</v>
       </c>
       <c r="H5">
-        <v>0.4872565855011572</v>
+        <v>1.229139946979814</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03608389503198861</v>
+        <v>0.08743284221128889</v>
       </c>
       <c r="K5">
-        <v>0.5911782535287102</v>
+        <v>0.3001837932693121</v>
       </c>
       <c r="L5">
-        <v>0.1627257768843222</v>
+        <v>0.3449139487231108</v>
       </c>
       <c r="M5">
-        <v>0.1793127820839864</v>
+        <v>0.2428017119846757</v>
       </c>
       <c r="N5">
-        <v>1.248757433346768</v>
+        <v>2.51499813922481</v>
       </c>
       <c r="O5">
-        <v>2.20137855670437</v>
+        <v>5.080223485906828</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7626786566499106</v>
+        <v>0.7245571598943457</v>
       </c>
       <c r="C6">
-        <v>0.113928770679582</v>
+        <v>0.1774018647722784</v>
       </c>
       <c r="D6">
-        <v>0.2610309792419656</v>
+        <v>0.5500798689613475</v>
       </c>
       <c r="E6">
-        <v>0.07597490944502283</v>
+        <v>0.1964942028006256</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5831188933203961</v>
+        <v>1.2618564245141</v>
       </c>
       <c r="H6">
-        <v>0.4874222608039886</v>
+        <v>1.22945815982947</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03610166703864426</v>
+        <v>0.08744303170064249</v>
       </c>
       <c r="K6">
-        <v>0.5869406180769801</v>
+        <v>0.2989792115343874</v>
       </c>
       <c r="L6">
-        <v>0.1622049363687523</v>
+        <v>0.344854274995896</v>
       </c>
       <c r="M6">
-        <v>0.1782933877918929</v>
+        <v>0.2425744653741368</v>
       </c>
       <c r="N6">
-        <v>1.25084585278441</v>
+        <v>2.515940289698298</v>
       </c>
       <c r="O6">
-        <v>2.201268585753965</v>
+        <v>5.081512841769026</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7979905488076326</v>
+        <v>0.7335358366790956</v>
       </c>
       <c r="C7">
-        <v>0.114172275632118</v>
+        <v>0.1774719972232042</v>
       </c>
       <c r="D7">
-        <v>0.2654913443276854</v>
+        <v>0.5503071650839502</v>
       </c>
       <c r="E7">
-        <v>0.07617211323076312</v>
+        <v>0.1962604705120103</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5846397806571701</v>
+        <v>1.259823371379937</v>
       </c>
       <c r="H7">
-        <v>0.4863223360017628</v>
+        <v>1.227284163484939</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03597919649112935</v>
+        <v>0.08737297768056917</v>
       </c>
       <c r="K7">
-        <v>0.6163595275328362</v>
+        <v>0.3073474863266767</v>
       </c>
       <c r="L7">
-        <v>0.16583358922977</v>
+        <v>0.345279502349257</v>
       </c>
       <c r="M7">
-        <v>0.1853791208179487</v>
+        <v>0.2441605987853741</v>
       </c>
       <c r="N7">
-        <v>1.236451405793454</v>
+        <v>2.509458688507907</v>
       </c>
       <c r="O7">
-        <v>2.202306080350468</v>
+        <v>5.072738865063357</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9545728138448624</v>
+        <v>0.7738009341430541</v>
       </c>
       <c r="C8">
-        <v>0.1152913785733105</v>
+        <v>0.1778020160666074</v>
       </c>
       <c r="D8">
-        <v>0.2858396656231292</v>
+        <v>0.5517871576063555</v>
       </c>
       <c r="E8">
-        <v>0.07721042761396824</v>
+        <v>0.1953565354344207</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5933983498615163</v>
+        <v>1.252061478160257</v>
       </c>
       <c r="H8">
-        <v>0.4827327625941393</v>
+        <v>1.218549611972392</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03546068092454524</v>
+        <v>0.08708044596413433</v>
       </c>
       <c r="K8">
-        <v>0.7463562821892253</v>
+        <v>0.3444486132569295</v>
       </c>
       <c r="L8">
-        <v>0.182191211812146</v>
+        <v>0.3474280048462575</v>
       </c>
       <c r="M8">
-        <v>0.216911409167615</v>
+        <v>0.2513763823512285</v>
       </c>
       <c r="N8">
-        <v>1.175476887597088</v>
+        <v>2.482290179628169</v>
       </c>
       <c r="O8">
-        <v>2.213848501507044</v>
+        <v>5.038361487050423</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.265099346657138</v>
+        <v>0.8550346735710264</v>
       </c>
       <c r="C9">
-        <v>0.1176518944123828</v>
+        <v>0.1785218190040396</v>
       </c>
       <c r="D9">
-        <v>0.3283503820949392</v>
+        <v>0.5563944866089514</v>
       </c>
       <c r="E9">
-        <v>0.07988220373784749</v>
+        <v>0.1940399109897282</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6185343827651195</v>
+        <v>1.241179740497273</v>
       </c>
       <c r="H9">
-        <v>0.480500302142346</v>
+        <v>1.204498267306505</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03452246606083786</v>
+        <v>0.08656615444687255</v>
       </c>
       <c r="K9">
-        <v>1.00245781490861</v>
+        <v>0.4177990524087249</v>
       </c>
       <c r="L9">
-        <v>0.2156362908950769</v>
+        <v>0.3526121049925663</v>
       </c>
       <c r="M9">
-        <v>0.2798679084879723</v>
+        <v>0.2662953906092227</v>
       </c>
       <c r="N9">
-        <v>1.065397765013649</v>
+        <v>2.434157673399728</v>
       </c>
       <c r="O9">
-        <v>2.263342665970384</v>
+        <v>4.986510627861975</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.496131897888517</v>
+        <v>0.916074989406809</v>
       </c>
       <c r="C10">
-        <v>0.1194936613792805</v>
+        <v>0.1790939805112117</v>
       </c>
       <c r="D10">
-        <v>0.3613909855194208</v>
+        <v>0.5608118490833505</v>
       </c>
       <c r="E10">
-        <v>0.08226435077490279</v>
+        <v>0.1933487188026213</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6424587859817734</v>
+        <v>1.235824343479749</v>
       </c>
       <c r="H10">
-        <v>0.4820540806337448</v>
+        <v>1.196042192435868</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03388086234241605</v>
+        <v>0.08622420105786377</v>
       </c>
       <c r="K10">
-        <v>1.19190072849014</v>
+        <v>0.4720332675044006</v>
       </c>
       <c r="L10">
-        <v>0.2411727488808708</v>
+        <v>0.3570074458708206</v>
       </c>
       <c r="M10">
-        <v>0.3269832768267449</v>
+        <v>0.2777184743126568</v>
       </c>
       <c r="N10">
-        <v>0.9906455736454873</v>
+        <v>2.401923209863063</v>
       </c>
       <c r="O10">
-        <v>2.317913962938832</v>
+        <v>4.957873661518789</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.602045502424289</v>
+        <v>0.9441330244258097</v>
       </c>
       <c r="C11">
-        <v>0.1203564288900054</v>
+        <v>0.1793634813930893</v>
       </c>
       <c r="D11">
-        <v>0.3768658573662123</v>
+        <v>0.5630441438042197</v>
       </c>
       <c r="E11">
-        <v>0.08344650263806841</v>
+        <v>0.1930938513790608</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6546696310595905</v>
+        <v>1.233959972357297</v>
       </c>
       <c r="H11">
-        <v>0.483516602433042</v>
+        <v>1.192599049335143</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03359929571144393</v>
+        <v>0.08607637006947044</v>
       </c>
       <c r="K11">
-        <v>1.278497233820104</v>
+        <v>0.4967766709692683</v>
       </c>
       <c r="L11">
-        <v>0.2530301680177018</v>
+        <v>0.3591332935583722</v>
       </c>
       <c r="M11">
-        <v>0.3486463088955531</v>
+        <v>0.2830141406588496</v>
       </c>
       <c r="N11">
-        <v>0.9580474167066626</v>
+        <v>2.387936539701559</v>
       </c>
       <c r="O11">
-        <v>2.347125080684805</v>
+        <v>4.946893552646173</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.64228538299767</v>
+        <v>0.9547990227305263</v>
       </c>
       <c r="C12">
-        <v>0.1206868603141942</v>
+        <v>0.1794668425500703</v>
       </c>
       <c r="D12">
-        <v>0.3827941766189298</v>
+        <v>0.5639213566716705</v>
       </c>
       <c r="E12">
-        <v>0.08390896769358136</v>
+        <v>0.1930058715661787</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6594970362422998</v>
+        <v>1.233336100870346</v>
       </c>
       <c r="H12">
-        <v>0.4841846126463594</v>
+        <v>1.191353111343261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03349415302569048</v>
+        <v>0.08602149659322222</v>
       </c>
       <c r="K12">
-        <v>1.311360816315499</v>
+        <v>0.5061562642618753</v>
       </c>
       <c r="L12">
-        <v>0.2575575664166365</v>
+        <v>0.3599563660732912</v>
       </c>
       <c r="M12">
-        <v>0.3568862474373589</v>
+        <v>0.285033602678098</v>
       </c>
       <c r="N12">
-        <v>0.9459128542165214</v>
+        <v>2.382737405236606</v>
       </c>
       <c r="O12">
-        <v>2.358855578080352</v>
+        <v>4.943029501641547</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.633612846895602</v>
+        <v>0.9525000961937735</v>
       </c>
       <c r="C13">
-        <v>0.1206155282835866</v>
+        <v>0.179444524048165</v>
       </c>
       <c r="D13">
-        <v>0.3815142955224644</v>
+        <v>0.5637310171866545</v>
       </c>
       <c r="E13">
-        <v>0.08380869821314718</v>
+        <v>0.1930244405903103</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6584481129578563</v>
+        <v>1.233466811840756</v>
       </c>
       <c r="H13">
-        <v>0.4840355747014939</v>
+        <v>1.191618873031786</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03351673155145507</v>
+        <v>0.08603326541074408</v>
       </c>
       <c r="K13">
-        <v>1.304279694252955</v>
+        <v>0.5041357737492262</v>
       </c>
       <c r="L13">
-        <v>0.2565808097244968</v>
+        <v>0.3597783012639297</v>
       </c>
       <c r="M13">
-        <v>0.3551099417295021</v>
+        <v>0.284598050544659</v>
       </c>
       <c r="N13">
-        <v>0.9485168035549227</v>
+        <v>2.383852804258605</v>
       </c>
       <c r="O13">
-        <v>2.356298824097024</v>
+        <v>4.943848631442023</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.605353310343872</v>
+        <v>0.9450097044911843</v>
       </c>
       <c r="C14">
-        <v>0.1203835383162186</v>
+        <v>0.1793719588930287</v>
       </c>
       <c r="D14">
-        <v>0.3773521883649238</v>
+        <v>0.563115674339798</v>
       </c>
       <c r="E14">
-        <v>0.08348424927295994</v>
+        <v>0.1930864423946801</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6550626331262492</v>
+        <v>1.233907000746242</v>
       </c>
       <c r="H14">
-        <v>0.4835692387544697</v>
+        <v>1.19249538547767</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03359061589270196</v>
+        <v>0.08607183343387703</v>
       </c>
       <c r="K14">
-        <v>1.28119944301406</v>
+        <v>0.4975481424217776</v>
       </c>
       <c r="L14">
-        <v>0.2534018775742766</v>
+        <v>0.3592006469296649</v>
       </c>
       <c r="M14">
-        <v>0.3493234585917477</v>
+        <v>0.283180001204876</v>
       </c>
       <c r="N14">
-        <v>0.9570448536374689</v>
+        <v>2.38750685362754</v>
       </c>
       <c r="O14">
-        <v>2.348076523450061</v>
+        <v>4.946569767819767</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.588061283628008</v>
+        <v>0.9404269444815156</v>
       </c>
       <c r="C15">
-        <v>0.1202419264046384</v>
+        <v>0.1793276802889068</v>
       </c>
       <c r="D15">
-        <v>0.3748118100243971</v>
+        <v>0.5627429078397341</v>
       </c>
       <c r="E15">
-        <v>0.08328746340819748</v>
+        <v>0.193125530595168</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6530158058773736</v>
+        <v>1.234187321270852</v>
       </c>
       <c r="H15">
-        <v>0.4832986344538739</v>
+        <v>1.193039811918197</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03363606496472205</v>
+        <v>0.08609560149678774</v>
       </c>
       <c r="K15">
-        <v>1.267071763911446</v>
+        <v>0.4935142884323795</v>
       </c>
       <c r="L15">
-        <v>0.2514596219710086</v>
+        <v>0.3588491655536785</v>
       </c>
       <c r="M15">
-        <v>0.3457839484819658</v>
+        <v>0.2823132374718114</v>
       </c>
       <c r="N15">
-        <v>0.9622960585690752</v>
+        <v>2.389757736670154</v>
       </c>
       <c r="O15">
-        <v>2.343128407401593</v>
+        <v>4.948274799873872</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.489227902513278</v>
+        <v>0.914247112746267</v>
       </c>
       <c r="C16">
-        <v>0.1194377905079165</v>
+        <v>0.1790765519291142</v>
       </c>
       <c r="D16">
-        <v>0.3603889813692973</v>
+        <v>0.5606704342218904</v>
       </c>
       <c r="E16">
-        <v>0.08218913078370349</v>
+        <v>0.1933665707702943</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6416885448360148</v>
+        <v>1.235957682355945</v>
       </c>
       <c r="H16">
-        <v>0.4819741716921015</v>
+        <v>1.196275319880513</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03389947060209098</v>
+        <v>0.08623401727287927</v>
       </c>
       <c r="K16">
-        <v>1.186250799227906</v>
+        <v>0.4704176296052083</v>
       </c>
       <c r="L16">
-        <v>0.2404029043879632</v>
+        <v>0.3568710501790804</v>
       </c>
       <c r="M16">
-        <v>0.3255724728364058</v>
+        <v>0.2773743732016527</v>
       </c>
       <c r="N16">
-        <v>0.9928048685356092</v>
+        <v>2.402850890927918</v>
       </c>
       <c r="O16">
-        <v>2.316096417905442</v>
+        <v>4.958632387349752</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.428816392519821</v>
+        <v>0.8982605069516012</v>
       </c>
       <c r="C17">
-        <v>0.118950958224616</v>
+        <v>0.1789248411345952</v>
       </c>
       <c r="D17">
-        <v>0.3516579460464584</v>
+        <v>0.5594560008083675</v>
       </c>
       <c r="E17">
-        <v>0.08154101527663471</v>
+        <v>0.1935296731698344</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.635088317219612</v>
+        <v>1.237190126952413</v>
       </c>
       <c r="H17">
-        <v>0.4813590265286223</v>
+        <v>1.198363472037116</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03406369929306097</v>
+        <v>0.08632090666351777</v>
       </c>
       <c r="K17">
-        <v>1.136784582772691</v>
+        <v>0.4562666251792677</v>
       </c>
       <c r="L17">
-        <v>0.2336834496359046</v>
+        <v>0.3556898296662752</v>
       </c>
       <c r="M17">
-        <v>0.3132347484311353</v>
+        <v>0.2743698433672037</v>
       </c>
       <c r="N17">
-        <v>1.011886475657197</v>
+        <v>2.411056477288607</v>
       </c>
       <c r="O17">
-        <v>2.300663009134809</v>
+        <v>4.965510375495228</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.394145090498768</v>
+        <v>0.889092820764148</v>
       </c>
       <c r="C18">
-        <v>0.1186732838043696</v>
+        <v>0.1788384502259461</v>
       </c>
       <c r="D18">
-        <v>0.3466776487419025</v>
+        <v>0.5587784720960656</v>
       </c>
       <c r="E18">
-        <v>0.08117746695413075</v>
+        <v>0.1936290932511184</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6314161979355646</v>
+        <v>1.237952825565188</v>
       </c>
       <c r="H18">
-        <v>0.4810759911599405</v>
+        <v>1.199602515181752</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03415912901801077</v>
+        <v>0.08637161052317088</v>
       </c>
       <c r="K18">
-        <v>1.108371546560761</v>
+        <v>0.4481341502716703</v>
       </c>
       <c r="L18">
-        <v>0.2298410909891402</v>
+        <v>0.3550223256369947</v>
       </c>
       <c r="M18">
-        <v>0.3061598403325618</v>
+        <v>0.2726510687795312</v>
       </c>
       <c r="N18">
-        <v>1.02299367962512</v>
+        <v>2.415839832813798</v>
       </c>
       <c r="O18">
-        <v>2.29219656621612</v>
+        <v>4.969659113228232</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.382418549492627</v>
+        <v>0.8859935260452119</v>
       </c>
       <c r="C19">
-        <v>0.118579665784047</v>
+        <v>0.1788093496040091</v>
       </c>
       <c r="D19">
-        <v>0.3449984144496625</v>
+        <v>0.5585526806112711</v>
       </c>
       <c r="E19">
-        <v>0.08105594204272037</v>
+        <v>0.1936637193084074</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6301938363475159</v>
+        <v>1.238220310530167</v>
       </c>
       <c r="H19">
-        <v>0.4809921542714761</v>
+        <v>1.200028563160259</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03419160646755826</v>
+        <v>0.08638890302893376</v>
       </c>
       <c r="K19">
-        <v>1.098757683475441</v>
+        <v>0.4453818200775572</v>
       </c>
       <c r="L19">
-        <v>0.228543920269999</v>
+        <v>0.3547983680245181</v>
       </c>
       <c r="M19">
-        <v>0.3037679734893075</v>
+        <v>0.2720707323531357</v>
       </c>
       <c r="N19">
-        <v>1.026776837550583</v>
+        <v>2.417470339629463</v>
       </c>
       <c r="O19">
-        <v>2.289399345113679</v>
+        <v>4.97109691565737</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.435239347496974</v>
+        <v>0.8999594793936581</v>
       </c>
       <c r="C20">
-        <v>0.1190025393792311</v>
+        <v>0.1789409011948351</v>
       </c>
       <c r="D20">
-        <v>0.352583047002085</v>
+        <v>0.5595831089172378</v>
       </c>
       <c r="E20">
-        <v>0.08160904839394334</v>
+        <v>0.1935117304744445</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6357779846465093</v>
+        <v>1.237053360755141</v>
       </c>
       <c r="H20">
-        <v>0.4814171454771525</v>
+        <v>1.19813725343765</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03404611651331457</v>
+        <v>0.08631158188723331</v>
       </c>
       <c r="K20">
-        <v>1.142046269455648</v>
+        <v>0.4577723230678714</v>
       </c>
       <c r="L20">
-        <v>0.2343964004931252</v>
+        <v>0.3558143415408495</v>
       </c>
       <c r="M20">
-        <v>0.3145458779522627</v>
+        <v>0.2746887140370404</v>
       </c>
       <c r="N20">
-        <v>1.009841496111595</v>
+        <v>2.410176384134009</v>
       </c>
       <c r="O20">
-        <v>2.302263173631417</v>
+        <v>4.964758261555119</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.613650092115279</v>
+        <v>0.9472087064989125</v>
       </c>
       <c r="C21">
-        <v>0.1204515773052464</v>
+        <v>0.1793932377168872</v>
       </c>
       <c r="D21">
-        <v>0.378572809543769</v>
+        <v>0.5632955511184292</v>
       </c>
       <c r="E21">
-        <v>0.08357914052415438</v>
+        <v>0.1930679996316016</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6560514060244742</v>
+        <v>1.233775478551649</v>
       </c>
       <c r="H21">
-        <v>0.4837030682779329</v>
+        <v>1.192236361992869</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03356887409691378</v>
+        <v>0.08606047506128611</v>
       </c>
       <c r="K21">
-        <v>1.287976641864987</v>
+        <v>0.4994828277390013</v>
       </c>
       <c r="L21">
-        <v>0.2543345742211187</v>
+        <v>0.3593698287707525</v>
       </c>
       <c r="M21">
-        <v>0.3510220657555294</v>
+        <v>0.2835961350848564</v>
       </c>
       <c r="N21">
-        <v>0.9545342080830901</v>
+        <v>2.386430929907986</v>
       </c>
       <c r="O21">
-        <v>2.350473143439899</v>
+        <v>4.945762532135092</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.731033178377459</v>
+        <v>0.9783276134910182</v>
       </c>
       <c r="C22">
-        <v>0.1214203616597729</v>
+        <v>0.1796964753300472</v>
       </c>
       <c r="D22">
-        <v>0.3959590846481831</v>
+        <v>0.5659076643610348</v>
       </c>
       <c r="E22">
-        <v>0.08495335985324459</v>
+        <v>0.1928277178214799</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6704933530793511</v>
+        <v>1.232111835132272</v>
       </c>
       <c r="H22">
-        <v>0.4858654242326423</v>
+        <v>1.188717247879225</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03326559776246674</v>
+        <v>0.08590281233466257</v>
       </c>
       <c r="K22">
-        <v>1.38377233642646</v>
+        <v>0.5267999407121806</v>
       </c>
       <c r="L22">
-        <v>0.267583794763425</v>
+        <v>0.3617987606725563</v>
       </c>
       <c r="M22">
-        <v>0.3750766168023389</v>
+        <v>0.2894998064870649</v>
       </c>
       <c r="N22">
-        <v>0.9196134379769427</v>
+        <v>2.371479111044472</v>
       </c>
       <c r="O22">
-        <v>2.385899344724209</v>
+        <v>4.935060449976675</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.668306765862866</v>
+        <v>0.9616972619182889</v>
       </c>
       <c r="C23">
-        <v>0.1209012653279871</v>
+        <v>0.1795339417039727</v>
       </c>
       <c r="D23">
-        <v>0.386641536797768</v>
+        <v>0.5644965773321928</v>
       </c>
       <c r="E23">
-        <v>0.08421176129608554</v>
+        <v>0.1929514216072228</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6626719903671443</v>
+        <v>1.232955991011366</v>
       </c>
       <c r="H23">
-        <v>0.4846482627922626</v>
+        <v>1.190564629516913</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03342667271949828</v>
+        <v>0.08598637102043671</v>
       </c>
       <c r="K23">
-        <v>1.332601855976975</v>
+        <v>0.5122152595191665</v>
       </c>
       <c r="L23">
-        <v>0.2604915327144823</v>
+        <v>0.3604928043970119</v>
       </c>
       <c r="M23">
-        <v>0.3622173227046517</v>
+        <v>0.2863414426950186</v>
       </c>
       <c r="N23">
-        <v>0.9381366154979194</v>
+        <v>2.379407287927817</v>
       </c>
       <c r="O23">
-        <v>2.366619966974525</v>
+        <v>4.940615795381774</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.432335343568383</v>
+        <v>0.8991913015488819</v>
       </c>
       <c r="C24">
-        <v>0.1189792126596956</v>
+        <v>0.1789336378562325</v>
       </c>
       <c r="D24">
-        <v>0.352164686806276</v>
+        <v>0.5595255789613702</v>
       </c>
       <c r="E24">
-        <v>0.08157826244412192</v>
+        <v>0.1935198247647278</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6354658055694387</v>
+        <v>1.237115024072168</v>
       </c>
       <c r="H24">
-        <v>0.4813906503487573</v>
+        <v>1.198239406817208</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0340540625343797</v>
+        <v>0.08631579528208322</v>
       </c>
       <c r="K24">
-        <v>1.139667381541244</v>
+        <v>0.4570915872739079</v>
       </c>
       <c r="L24">
-        <v>0.2340740109901702</v>
+        <v>0.3557580135955192</v>
       </c>
       <c r="M24">
-        <v>0.3139530598282789</v>
+        <v>0.2745445259016392</v>
       </c>
       <c r="N24">
-        <v>1.0107656053951</v>
+        <v>2.410574069112204</v>
       </c>
       <c r="O24">
-        <v>2.301538476181264</v>
+        <v>4.965097686405471</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.180645180969236</v>
+        <v>0.8328182823657357</v>
       </c>
       <c r="C25">
-        <v>0.1169949243121948</v>
+        <v>0.1783194164748494</v>
       </c>
       <c r="D25">
-        <v>0.3165491178663871</v>
+        <v>0.5549662763366001</v>
       </c>
       <c r="E25">
-        <v>0.07908819898194785</v>
+        <v>0.1943474677467165</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.6108219111241624</v>
+        <v>1.243659600953222</v>
       </c>
       <c r="H25">
-        <v>0.4805633576352193</v>
+        <v>1.207970979106264</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03476788643637274</v>
+        <v>0.08669895913817305</v>
       </c>
       <c r="K25">
-        <v>0.9329929965943222</v>
+        <v>0.3978940767799486</v>
       </c>
       <c r="L25">
-        <v>0.2064290556098527</v>
+        <v>0.351106275954578</v>
       </c>
       <c r="M25">
-        <v>0.2626987306193342</v>
+        <v>0.2621777762276167</v>
       </c>
       <c r="N25">
-        <v>1.09412739213006</v>
+        <v>2.446628832689803</v>
       </c>
       <c r="O25">
-        <v>2.246894727853743</v>
+        <v>4.998874613516648</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_192/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.784865710146363</v>
+        <v>0.9972064181278881</v>
       </c>
       <c r="C2">
-        <v>0.1778963862686638</v>
+        <v>0.1156056142152906</v>
       </c>
       <c r="D2">
-        <v>0.5523038155123459</v>
+        <v>0.2915218282501826</v>
       </c>
       <c r="E2">
-        <v>0.1951425423216033</v>
+        <v>0.07753365863323936</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.250252276497449</v>
+        <v>0.5962889745238158</v>
       </c>
       <c r="H2">
-        <v>1.216391541453632</v>
+        <v>0.4820762004174384</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08700521278944517</v>
+        <v>0.03532551602614831</v>
       </c>
       <c r="K2">
-        <v>0.354542159966428</v>
+        <v>0.7816387997756635</v>
       </c>
       <c r="L2">
-        <v>0.3480760438458219</v>
+        <v>0.1867112918666081</v>
       </c>
       <c r="M2">
-        <v>0.2533837793569447</v>
+        <v>0.2255247739544544</v>
       </c>
       <c r="N2">
-        <v>2.475277352253141</v>
+        <v>1.159586392109652</v>
       </c>
       <c r="O2">
-        <v>5.030101277065825</v>
+        <v>2.218729191362655</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.752948606238391</v>
+        <v>0.8738022031682533</v>
       </c>
       <c r="C3">
-        <v>0.1776282276230958</v>
+        <v>0.1147066865888213</v>
       </c>
       <c r="D3">
-        <v>0.5509349362848184</v>
+        <v>0.2752343834727498</v>
       </c>
       <c r="E3">
-        <v>0.1957978153097724</v>
+        <v>0.07664360934337644</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.255828740795458</v>
+        <v>0.5884936596191892</v>
       </c>
       <c r="H3">
-        <v>1.222884113302342</v>
+        <v>0.4843381639493742</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0872279177124371</v>
+        <v>0.03572349349925874</v>
       </c>
       <c r="K3">
-        <v>0.3253142359467915</v>
+        <v>0.6793860336065762</v>
       </c>
       <c r="L3">
-        <v>0.3462703824005686</v>
+        <v>0.1737023881928934</v>
       </c>
       <c r="M3">
-        <v>0.2476203780224182</v>
+        <v>0.2006245184030995</v>
       </c>
       <c r="N3">
-        <v>2.496006694258837</v>
+        <v>1.206383793120927</v>
       </c>
       <c r="O3">
-        <v>5.055239286500068</v>
+        <v>2.206563923446751</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.733641252433813</v>
+        <v>0.7984041224232499</v>
       </c>
       <c r="C4">
-        <v>0.1774728291541976</v>
+        <v>0.1141751490701921</v>
       </c>
       <c r="D4">
-        <v>0.5503100861525212</v>
+        <v>0.2655438905540422</v>
       </c>
       <c r="E4">
-        <v>0.1962578054156143</v>
+        <v>0.07617451131298303</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.259800244391656</v>
+        <v>0.5846586699884924</v>
       </c>
       <c r="H4">
-        <v>1.227259195482304</v>
+        <v>0.4863101454572032</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08737216706262929</v>
+        <v>0.03597777544174408</v>
       </c>
       <c r="K4">
-        <v>0.3074455016898412</v>
+        <v>0.6167038373040441</v>
       </c>
       <c r="L4">
-        <v>0.3452846272183479</v>
+        <v>0.1658762320065534</v>
       </c>
       <c r="M4">
-        <v>0.2441792773750748</v>
+        <v>0.1854621695066463</v>
       </c>
       <c r="N4">
-        <v>2.509383630593933</v>
+        <v>1.236284350530818</v>
       </c>
       <c r="O4">
-        <v>5.072638575531258</v>
+        <v>2.202321948737563</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7258469354265742</v>
+        <v>0.7677620228837156</v>
       </c>
       <c r="C5">
-        <v>0.1774118483741418</v>
+        <v>0.1139635959354344</v>
       </c>
       <c r="D5">
-        <v>0.5501098322473297</v>
+        <v>0.2616698283851235</v>
       </c>
       <c r="E5">
-        <v>0.1964597855527686</v>
+        <v>0.07600235978770264</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.261556476216633</v>
+        <v>0.5833264321738341</v>
       </c>
       <c r="H5">
-        <v>1.229139946979814</v>
+        <v>0.4872565855010436</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08743284221128889</v>
+        <v>0.03608389503207299</v>
       </c>
       <c r="K5">
-        <v>0.3001837932693121</v>
+        <v>0.5911782535286534</v>
       </c>
       <c r="L5">
-        <v>0.3449139487231108</v>
+        <v>0.1627257768843222</v>
       </c>
       <c r="M5">
-        <v>0.2428017119846757</v>
+        <v>0.1793127820839864</v>
       </c>
       <c r="N5">
-        <v>2.51499813922481</v>
+        <v>1.248757433346843</v>
       </c>
       <c r="O5">
-        <v>5.080223485906828</v>
+        <v>2.201378556704285</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7245571598943457</v>
+        <v>0.7626786566500243</v>
       </c>
       <c r="C6">
-        <v>0.1774018647722784</v>
+        <v>0.1139287706794292</v>
       </c>
       <c r="D6">
-        <v>0.5500798689613475</v>
+        <v>0.2610309792420225</v>
       </c>
       <c r="E6">
-        <v>0.1964942028006256</v>
+        <v>0.0759749094450175</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.2618564245141</v>
+        <v>0.5831188933204032</v>
       </c>
       <c r="H6">
-        <v>1.22945815982947</v>
+        <v>0.487422260803875</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08744303170064249</v>
+        <v>0.03610166703869799</v>
       </c>
       <c r="K6">
-        <v>0.2989792115343874</v>
+        <v>0.5869406180769516</v>
       </c>
       <c r="L6">
-        <v>0.344854274995896</v>
+        <v>0.1622049363687665</v>
       </c>
       <c r="M6">
-        <v>0.2425744653741368</v>
+        <v>0.1782933877919035</v>
       </c>
       <c r="N6">
-        <v>2.515940289698298</v>
+        <v>1.250845852784414</v>
       </c>
       <c r="O6">
-        <v>5.081512841769026</v>
+        <v>2.201268585753979</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7335358366790956</v>
+        <v>0.7979905488076326</v>
       </c>
       <c r="C7">
-        <v>0.1774719972232042</v>
+        <v>0.1141722756323595</v>
       </c>
       <c r="D7">
-        <v>0.5503071650839502</v>
+        <v>0.2654913443276854</v>
       </c>
       <c r="E7">
-        <v>0.1962604705120103</v>
+        <v>0.07617211323072226</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.259823371379937</v>
+        <v>0.5846397806570991</v>
       </c>
       <c r="H7">
-        <v>1.227284163484939</v>
+        <v>0.4863223360017628</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08737297768056917</v>
+        <v>0.03597919649101211</v>
       </c>
       <c r="K7">
-        <v>0.3073474863266767</v>
+        <v>0.6163595275327367</v>
       </c>
       <c r="L7">
-        <v>0.345279502349257</v>
+        <v>0.1658335892296918</v>
       </c>
       <c r="M7">
-        <v>0.2441605987853741</v>
+        <v>0.1853791208179381</v>
       </c>
       <c r="N7">
-        <v>2.509458688507907</v>
+        <v>1.236451405793467</v>
       </c>
       <c r="O7">
-        <v>5.072738865063357</v>
+        <v>2.202306080350468</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7738009341430541</v>
+        <v>0.9545728138447487</v>
       </c>
       <c r="C8">
-        <v>0.1778020160666074</v>
+        <v>0.1152913785727314</v>
       </c>
       <c r="D8">
-        <v>0.5517871576063555</v>
+        <v>0.2858396656230013</v>
       </c>
       <c r="E8">
-        <v>0.1953565354344207</v>
+        <v>0.07721042761395047</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.252061478160257</v>
+        <v>0.5933983498615163</v>
       </c>
       <c r="H8">
-        <v>1.218549611972392</v>
+        <v>0.4827327625941393</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08708044596413433</v>
+        <v>0.03546068092454302</v>
       </c>
       <c r="K8">
-        <v>0.3444486132569295</v>
+        <v>0.7463562821893106</v>
       </c>
       <c r="L8">
-        <v>0.3474280048462575</v>
+        <v>0.1821912118122029</v>
       </c>
       <c r="M8">
-        <v>0.2513763823512285</v>
+        <v>0.2169114091676327</v>
       </c>
       <c r="N8">
-        <v>2.482290179628169</v>
+        <v>1.175476887597145</v>
       </c>
       <c r="O8">
-        <v>5.038361487050423</v>
+        <v>2.21384850150713</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8550346735710264</v>
+        <v>1.265099346656939</v>
       </c>
       <c r="C9">
-        <v>0.1785218190040396</v>
+        <v>0.1176518944124751</v>
       </c>
       <c r="D9">
-        <v>0.5563944866089514</v>
+        <v>0.3283503820948113</v>
       </c>
       <c r="E9">
-        <v>0.1940399109897282</v>
+        <v>0.07988220373784394</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.241179740497273</v>
+        <v>0.6185343827650627</v>
       </c>
       <c r="H9">
-        <v>1.204498267306505</v>
+        <v>0.4805003021423602</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08656615444687255</v>
+        <v>0.03452246606083298</v>
       </c>
       <c r="K9">
-        <v>0.4177990524087249</v>
+        <v>1.002457814908439</v>
       </c>
       <c r="L9">
-        <v>0.3526121049925663</v>
+        <v>0.2156362908949561</v>
       </c>
       <c r="M9">
-        <v>0.2662953906092227</v>
+        <v>0.2798679084879865</v>
       </c>
       <c r="N9">
-        <v>2.434157673399728</v>
+        <v>1.065397765013636</v>
       </c>
       <c r="O9">
-        <v>4.986510627861975</v>
+        <v>2.263342665970328</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.916074989406809</v>
+        <v>1.496131897888745</v>
       </c>
       <c r="C10">
-        <v>0.1790939805112117</v>
+        <v>0.1194936613792734</v>
       </c>
       <c r="D10">
-        <v>0.5608118490833505</v>
+        <v>0.3613909855193924</v>
       </c>
       <c r="E10">
-        <v>0.1933487188026213</v>
+        <v>0.08226435077489569</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.235824343479749</v>
+        <v>0.642458785981816</v>
       </c>
       <c r="H10">
-        <v>1.196042192435868</v>
+        <v>0.4820540806336595</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08622420105786377</v>
+        <v>0.0338808623425173</v>
       </c>
       <c r="K10">
-        <v>0.4720332675044006</v>
+        <v>1.191900728490168</v>
       </c>
       <c r="L10">
-        <v>0.3570074458708206</v>
+        <v>0.2411727488808282</v>
       </c>
       <c r="M10">
-        <v>0.2777184743126568</v>
+        <v>0.3269832768267662</v>
       </c>
       <c r="N10">
-        <v>2.401923209863063</v>
+        <v>0.9906455736454891</v>
       </c>
       <c r="O10">
-        <v>4.957873661518789</v>
+        <v>2.317913962938917</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9441330244258097</v>
+        <v>1.602045502424204</v>
       </c>
       <c r="C11">
-        <v>0.1793634813930893</v>
+        <v>0.1203564288893944</v>
       </c>
       <c r="D11">
-        <v>0.5630441438042197</v>
+        <v>0.3768658573663259</v>
       </c>
       <c r="E11">
-        <v>0.1930938513790608</v>
+        <v>0.08344650263807551</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.233959972357297</v>
+        <v>0.6546696310595905</v>
       </c>
       <c r="H11">
-        <v>1.192599049335143</v>
+        <v>0.483516602433042</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08607637006947044</v>
+        <v>0.03359929571149323</v>
       </c>
       <c r="K11">
-        <v>0.4967766709692683</v>
+        <v>1.278497233820218</v>
       </c>
       <c r="L11">
-        <v>0.3591332935583722</v>
+        <v>0.2530301680176592</v>
       </c>
       <c r="M11">
-        <v>0.2830141406588496</v>
+        <v>0.3486463088955318</v>
       </c>
       <c r="N11">
-        <v>2.387936539701559</v>
+        <v>0.9580474167066608</v>
       </c>
       <c r="O11">
-        <v>4.946893552646173</v>
+        <v>2.347125080684862</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9547990227305263</v>
+        <v>1.642285382997756</v>
       </c>
       <c r="C12">
-        <v>0.1794668425500703</v>
+        <v>0.1206868603138602</v>
       </c>
       <c r="D12">
-        <v>0.5639213566716705</v>
+        <v>0.3827941766189866</v>
       </c>
       <c r="E12">
-        <v>0.1930058715661787</v>
+        <v>0.08390896769358136</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.233336100870346</v>
+        <v>0.6594970362422998</v>
       </c>
       <c r="H12">
-        <v>1.191353111343261</v>
+        <v>0.4841846126462457</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08602149659322222</v>
+        <v>0.0334941530257824</v>
       </c>
       <c r="K12">
-        <v>0.5061562642618753</v>
+        <v>1.311360816315613</v>
       </c>
       <c r="L12">
-        <v>0.3599563660732912</v>
+        <v>0.2575575664166223</v>
       </c>
       <c r="M12">
-        <v>0.285033602678098</v>
+        <v>0.3568862474373518</v>
       </c>
       <c r="N12">
-        <v>2.382737405236606</v>
+        <v>0.9459128542165365</v>
       </c>
       <c r="O12">
-        <v>4.943029501641547</v>
+        <v>2.358855578080352</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9525000961937735</v>
+        <v>1.633612846895574</v>
       </c>
       <c r="C13">
-        <v>0.179444524048165</v>
+        <v>0.1206155282833521</v>
       </c>
       <c r="D13">
-        <v>0.5637310171866545</v>
+        <v>0.381514295522436</v>
       </c>
       <c r="E13">
-        <v>0.1930244405903103</v>
+        <v>0.08380869821313297</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.233466811840756</v>
+        <v>0.6584481129577711</v>
       </c>
       <c r="H13">
-        <v>1.191618873031786</v>
+        <v>0.4840355747014797</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08603326541074408</v>
+        <v>0.03351673155142754</v>
       </c>
       <c r="K13">
-        <v>0.5041357737492262</v>
+        <v>1.30427969425304</v>
       </c>
       <c r="L13">
-        <v>0.3597783012639297</v>
+        <v>0.2565808097245963</v>
       </c>
       <c r="M13">
-        <v>0.284598050544659</v>
+        <v>0.3551099417295021</v>
       </c>
       <c r="N13">
-        <v>2.383852804258605</v>
+        <v>0.9485168035548988</v>
       </c>
       <c r="O13">
-        <v>4.943848631442023</v>
+        <v>2.35629882409691</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9450097044911843</v>
+        <v>1.605353310344071</v>
       </c>
       <c r="C14">
-        <v>0.1793719588930287</v>
+        <v>0.1203835383166947</v>
       </c>
       <c r="D14">
-        <v>0.563115674339798</v>
+        <v>0.3773521883649948</v>
       </c>
       <c r="E14">
-        <v>0.1930864423946801</v>
+        <v>0.08348424927295639</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.233907000746242</v>
+        <v>0.6550626331262492</v>
       </c>
       <c r="H14">
-        <v>1.19249538547767</v>
+        <v>0.4835692387544697</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08607183343387703</v>
+        <v>0.03359061589282231</v>
       </c>
       <c r="K14">
-        <v>0.4975481424217776</v>
+        <v>1.281199443013975</v>
       </c>
       <c r="L14">
-        <v>0.3592006469296649</v>
+        <v>0.2534018775742766</v>
       </c>
       <c r="M14">
-        <v>0.283180001204876</v>
+        <v>0.3493234585917477</v>
       </c>
       <c r="N14">
-        <v>2.38750685362754</v>
+        <v>0.9570448536374681</v>
       </c>
       <c r="O14">
-        <v>4.946569767819767</v>
+        <v>2.348076523450004</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9404269444815156</v>
+        <v>1.588061283627894</v>
       </c>
       <c r="C15">
-        <v>0.1793276802889068</v>
+        <v>0.1202419264046242</v>
       </c>
       <c r="D15">
-        <v>0.5627429078397341</v>
+        <v>0.374811810024255</v>
       </c>
       <c r="E15">
-        <v>0.193125530595168</v>
+        <v>0.08328746340818327</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.234187321270852</v>
+        <v>0.6530158058773452</v>
       </c>
       <c r="H15">
-        <v>1.193039811918197</v>
+        <v>0.4832986344538739</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08609560149678774</v>
+        <v>0.03363606496477134</v>
       </c>
       <c r="K15">
-        <v>0.4935142884323795</v>
+        <v>1.267071763911559</v>
       </c>
       <c r="L15">
-        <v>0.3588491655536785</v>
+        <v>0.251459621971037</v>
       </c>
       <c r="M15">
-        <v>0.2823132374718114</v>
+        <v>0.3457839484819729</v>
       </c>
       <c r="N15">
-        <v>2.389757736670154</v>
+        <v>0.9622960585690636</v>
       </c>
       <c r="O15">
-        <v>4.948274799873872</v>
+        <v>2.343128407401593</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.914247112746267</v>
+        <v>1.489227902513164</v>
       </c>
       <c r="C16">
-        <v>0.1790765519291142</v>
+        <v>0.1194377905079165</v>
       </c>
       <c r="D16">
-        <v>0.5606704342218904</v>
+        <v>0.3603889813693542</v>
       </c>
       <c r="E16">
-        <v>0.1933665707702943</v>
+        <v>0.0821891307837177</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.235957682355945</v>
+        <v>0.6416885448360858</v>
       </c>
       <c r="H16">
-        <v>1.196275319880513</v>
+        <v>0.4819741716922152</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08623401727287927</v>
+        <v>0.03389947060203591</v>
       </c>
       <c r="K16">
-        <v>0.4704176296052083</v>
+        <v>1.186250799228048</v>
       </c>
       <c r="L16">
-        <v>0.3568710501790804</v>
+        <v>0.2404029043879206</v>
       </c>
       <c r="M16">
-        <v>0.2773743732016527</v>
+        <v>0.3255724728364058</v>
       </c>
       <c r="N16">
-        <v>2.402850890927918</v>
+        <v>0.9928048685356226</v>
       </c>
       <c r="O16">
-        <v>4.958632387349752</v>
+        <v>2.316096417905413</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8982605069516012</v>
+        <v>1.428816392519849</v>
       </c>
       <c r="C17">
-        <v>0.1789248411345952</v>
+        <v>0.1189509582249428</v>
       </c>
       <c r="D17">
-        <v>0.5594560008083675</v>
+        <v>0.3516579460465721</v>
       </c>
       <c r="E17">
-        <v>0.1935296731698344</v>
+        <v>0.08154101527665247</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.237190126952413</v>
+        <v>0.6350883172196262</v>
       </c>
       <c r="H17">
-        <v>1.198363472037116</v>
+        <v>0.4813590265286081</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08632090666351777</v>
+        <v>0.03406369929297348</v>
       </c>
       <c r="K17">
-        <v>0.4562666251792677</v>
+        <v>1.136784582772748</v>
       </c>
       <c r="L17">
-        <v>0.3556898296662752</v>
+        <v>0.2336834496359046</v>
       </c>
       <c r="M17">
-        <v>0.2743698433672037</v>
+        <v>0.3132347484311353</v>
       </c>
       <c r="N17">
-        <v>2.411056477288607</v>
+        <v>1.011886475657189</v>
       </c>
       <c r="O17">
-        <v>4.965510375495228</v>
+        <v>2.30066300913478</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.889092820764148</v>
+        <v>1.39414509049891</v>
       </c>
       <c r="C18">
-        <v>0.1788384502259461</v>
+        <v>0.1186732838041777</v>
       </c>
       <c r="D18">
-        <v>0.5587784720960656</v>
+        <v>0.3466776487419594</v>
       </c>
       <c r="E18">
-        <v>0.1936290932511184</v>
+        <v>0.08117746695416272</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.237952825565188</v>
+        <v>0.6314161979355077</v>
       </c>
       <c r="H18">
-        <v>1.199602515181752</v>
+        <v>0.4810759911600542</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08637161052317088</v>
+        <v>0.03415912901800633</v>
       </c>
       <c r="K18">
-        <v>0.4481341502716703</v>
+        <v>1.108371546560818</v>
       </c>
       <c r="L18">
-        <v>0.3550223256369947</v>
+        <v>0.2298410909892112</v>
       </c>
       <c r="M18">
-        <v>0.2726510687795312</v>
+        <v>0.3061598403325831</v>
       </c>
       <c r="N18">
-        <v>2.415839832813798</v>
+        <v>1.022993679625115</v>
       </c>
       <c r="O18">
-        <v>4.969659113228232</v>
+        <v>2.292196566216091</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8859935260452119</v>
+        <v>1.382418549492797</v>
       </c>
       <c r="C19">
-        <v>0.1788093496040091</v>
+        <v>0.1185796657846296</v>
       </c>
       <c r="D19">
-        <v>0.5585526806112711</v>
+        <v>0.3449984144496199</v>
       </c>
       <c r="E19">
-        <v>0.1936637193084074</v>
+        <v>0.08105594204270972</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.238220310530167</v>
+        <v>0.6301938363474591</v>
       </c>
       <c r="H19">
-        <v>1.200028563160259</v>
+        <v>0.4809921542714761</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08638890302893376</v>
+        <v>0.03419160646767638</v>
       </c>
       <c r="K19">
-        <v>0.4453818200775572</v>
+        <v>1.098757683475384</v>
       </c>
       <c r="L19">
-        <v>0.3547983680245181</v>
+        <v>0.2285439202700275</v>
       </c>
       <c r="M19">
-        <v>0.2720707323531357</v>
+        <v>0.3037679734893146</v>
       </c>
       <c r="N19">
-        <v>2.417470339629463</v>
+        <v>1.026776837550598</v>
       </c>
       <c r="O19">
-        <v>4.97109691565737</v>
+        <v>2.289399345113708</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8999594793936581</v>
+        <v>1.435239347497145</v>
       </c>
       <c r="C20">
-        <v>0.1789409011948351</v>
+        <v>0.1190025393793093</v>
       </c>
       <c r="D20">
-        <v>0.5595831089172378</v>
+        <v>0.3525830470019713</v>
       </c>
       <c r="E20">
-        <v>0.1935117304744445</v>
+        <v>0.08160904839395755</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.237053360755141</v>
+        <v>0.6357779846465377</v>
       </c>
       <c r="H20">
-        <v>1.19813725343765</v>
+        <v>0.481417145477252</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08631158188723331</v>
+        <v>0.0340461165133763</v>
       </c>
       <c r="K20">
-        <v>0.4577723230678714</v>
+        <v>1.142046269455534</v>
       </c>
       <c r="L20">
-        <v>0.3558143415408495</v>
+        <v>0.2343964004931109</v>
       </c>
       <c r="M20">
-        <v>0.2746887140370404</v>
+        <v>0.3145458779522485</v>
       </c>
       <c r="N20">
-        <v>2.410176384134009</v>
+        <v>1.009841496111667</v>
       </c>
       <c r="O20">
-        <v>4.964758261555119</v>
+        <v>2.30226317363136</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9472087064989125</v>
+        <v>1.613650092115307</v>
       </c>
       <c r="C21">
-        <v>0.1793932377168872</v>
+        <v>0.1204515773052037</v>
       </c>
       <c r="D21">
-        <v>0.5632955511184292</v>
+        <v>0.378572809543698</v>
       </c>
       <c r="E21">
-        <v>0.1930679996316016</v>
+        <v>0.08357914052416859</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.233775478551649</v>
+        <v>0.65605140602446</v>
       </c>
       <c r="H21">
-        <v>1.192236361992869</v>
+        <v>0.4837030682779186</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08606047506128611</v>
+        <v>0.03356887409689957</v>
       </c>
       <c r="K21">
-        <v>0.4994828277390013</v>
+        <v>1.287976641864958</v>
       </c>
       <c r="L21">
-        <v>0.3593698287707525</v>
+        <v>0.2543345742211471</v>
       </c>
       <c r="M21">
-        <v>0.2835961350848564</v>
+        <v>0.3510220657555436</v>
       </c>
       <c r="N21">
-        <v>2.386430929907986</v>
+        <v>0.9545342080830785</v>
       </c>
       <c r="O21">
-        <v>4.945762532135092</v>
+        <v>2.350473143439871</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9783276134910182</v>
+        <v>1.731033178377459</v>
       </c>
       <c r="C22">
-        <v>0.1796964753300472</v>
+        <v>0.1214203616596592</v>
       </c>
       <c r="D22">
-        <v>0.5659076643610348</v>
+        <v>0.395959084648112</v>
       </c>
       <c r="E22">
-        <v>0.1928277178214799</v>
+        <v>0.08495335985324814</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.232111835132272</v>
+        <v>0.6704933530793653</v>
       </c>
       <c r="H22">
-        <v>1.188717247879225</v>
+        <v>0.4858654242326566</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08590281233466257</v>
+        <v>0.03326559776233751</v>
       </c>
       <c r="K22">
-        <v>0.5267999407121806</v>
+        <v>1.383772336426375</v>
       </c>
       <c r="L22">
-        <v>0.3617987606725563</v>
+        <v>0.2675837947635102</v>
       </c>
       <c r="M22">
-        <v>0.2894998064870649</v>
+        <v>0.3750766168023389</v>
       </c>
       <c r="N22">
-        <v>2.371479111044472</v>
+        <v>0.9196134379769507</v>
       </c>
       <c r="O22">
-        <v>4.935060449976675</v>
+        <v>2.385899344724209</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9616972619182889</v>
+        <v>1.668306765862894</v>
       </c>
       <c r="C23">
-        <v>0.1795339417039727</v>
+        <v>0.1209012653280936</v>
       </c>
       <c r="D23">
-        <v>0.5644965773321928</v>
+        <v>0.3866415367977396</v>
       </c>
       <c r="E23">
-        <v>0.1929514216072228</v>
+        <v>0.0842117612960962</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.232955991011366</v>
+        <v>0.6626719903671159</v>
       </c>
       <c r="H23">
-        <v>1.190564629516913</v>
+        <v>0.4846482627921489</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08598637102043671</v>
+        <v>0.03342667271937216</v>
       </c>
       <c r="K23">
-        <v>0.5122152595191665</v>
+        <v>1.332601855976975</v>
       </c>
       <c r="L23">
-        <v>0.3604928043970119</v>
+        <v>0.2604915327144965</v>
       </c>
       <c r="M23">
-        <v>0.2863414426950186</v>
+        <v>0.3622173227046517</v>
       </c>
       <c r="N23">
-        <v>2.379407287927817</v>
+        <v>0.938136615497978</v>
       </c>
       <c r="O23">
-        <v>4.940615795381774</v>
+        <v>2.366619966974554</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8991913015488819</v>
+        <v>1.432335343568241</v>
       </c>
       <c r="C24">
-        <v>0.1789336378562325</v>
+        <v>0.1189792126596956</v>
       </c>
       <c r="D24">
-        <v>0.5595255789613702</v>
+        <v>0.3521646868061055</v>
       </c>
       <c r="E24">
-        <v>0.1935198247647278</v>
+        <v>0.08157826244412192</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.237115024072168</v>
+        <v>0.6354658055694102</v>
       </c>
       <c r="H24">
-        <v>1.198239406817208</v>
+        <v>0.4813906503487573</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08631579528208322</v>
+        <v>0.03405406253437793</v>
       </c>
       <c r="K24">
-        <v>0.4570915872739079</v>
+        <v>1.139667381541273</v>
       </c>
       <c r="L24">
-        <v>0.3557580135955192</v>
+        <v>0.2340740109901702</v>
       </c>
       <c r="M24">
-        <v>0.2745445259016392</v>
+        <v>0.3139530598282789</v>
       </c>
       <c r="N24">
-        <v>2.410574069112204</v>
+        <v>1.010765605395103</v>
       </c>
       <c r="O24">
-        <v>4.965097686405471</v>
+        <v>2.301538476181264</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8328182823657357</v>
+        <v>1.180645180969293</v>
       </c>
       <c r="C25">
-        <v>0.1783194164748494</v>
+        <v>0.1169949243117827</v>
       </c>
       <c r="D25">
-        <v>0.5549662763366001</v>
+        <v>0.3165491178664581</v>
       </c>
       <c r="E25">
-        <v>0.1943474677467165</v>
+        <v>0.07908819898195496</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.243659600953222</v>
+        <v>0.6108219111242192</v>
       </c>
       <c r="H25">
-        <v>1.207970979106264</v>
+        <v>0.4805633576352477</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08669895913817305</v>
+        <v>0.03476788643623419</v>
       </c>
       <c r="K25">
-        <v>0.3978940767799486</v>
+        <v>0.9329929965944359</v>
       </c>
       <c r="L25">
-        <v>0.351106275954578</v>
+        <v>0.206429055609874</v>
       </c>
       <c r="M25">
-        <v>0.2621777762276167</v>
+        <v>0.2626987306193271</v>
       </c>
       <c r="N25">
-        <v>2.446628832689803</v>
+        <v>1.094127392130062</v>
       </c>
       <c r="O25">
-        <v>4.998874613516648</v>
+        <v>2.246894727853828</v>
       </c>
     </row>
   </sheetData>
